--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BB4581-ADDE-B94D-93F7-CF5823239C56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B208B260-C4C3-4276-9641-4472DBA46206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="3240" windowWidth="20700" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
   <si>
     <t>所属进程</t>
   </si>
@@ -135,6 +135,14 @@
   </si>
   <si>
     <t>Router04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,23 +567,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -599,7 +607,7 @@
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -623,7 +631,7 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -647,7 +655,10 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -667,7 +678,10 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -687,7 +701,10 @@
         <v>30003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -707,7 +724,10 @@
         <v>30004</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -725,7 +745,10 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -743,7 +766,10 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -760,11 +786,28 @@
         <v>13</v>
       </c>
       <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -776,17 +819,17 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -809,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -837,7 +880,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -865,7 +908,7 @@
       <c r="K3"/>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="9">
         <v>200</v>
@@ -889,7 +932,7 @@
       <c r="K4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -903,7 +946,7 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1">
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -917,7 +960,7 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -931,7 +974,7 @@
       <c r="K7"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -945,7 +988,7 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -959,35 +1002,35 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
@@ -1006,9 +1049,9 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>300</v>
       </c>
@@ -1097,7 +1140,7 @@
         <v>30300</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>301</v>
       </c>
@@ -1117,7 +1160,7 @@
         <v>30301</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>302</v>
       </c>
@@ -1137,7 +1180,7 @@
         <v>30302</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>303</v>
       </c>
@@ -1157,7 +1200,7 @@
         <v>30303</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>304</v>
       </c>

--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B208B260-C4C3-4276-9641-4472DBA46206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB0C92A-74C1-4993-A718-3DC4E756E245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
   <si>
     <t>所属进程</t>
   </si>
@@ -143,6 +143,27 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,6 +282,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -569,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+    <sheetView zoomScale="145" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1045,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1DD6FD-6B12-B642-8645-9450390C752E}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1121,6 +1143,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="B4" s="4">
         <v>300</v>
       </c>
@@ -1141,6 +1166,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="B5" s="4">
         <v>301</v>
       </c>
@@ -1161,6 +1189,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="B6" s="4">
         <v>302</v>
       </c>
@@ -1181,6 +1212,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="B7" s="4">
         <v>303</v>
       </c>
@@ -1201,6 +1235,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="B8" s="4">
         <v>304</v>
       </c>
@@ -1223,5 +1260,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>